--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.08082333333333</v>
+        <v>2.708836333333334</v>
       </c>
       <c r="H2">
-        <v>153.24247</v>
+        <v>8.126509</v>
       </c>
       <c r="I2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="J2">
-        <v>0.2638639125382024</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N2">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>305.1316216935477</v>
+        <v>0.004902090817888889</v>
       </c>
       <c r="R2">
-        <v>2746.18459524193</v>
+        <v>0.044118817361</v>
       </c>
       <c r="S2">
-        <v>0.2637839994880714</v>
+        <v>0.0171826329450544</v>
       </c>
       <c r="T2">
-        <v>0.2637839994880714</v>
+        <v>0.0171826329450544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.08082333333333</v>
+        <v>100.4067206666667</v>
       </c>
       <c r="H3">
-        <v>153.24247</v>
+        <v>301.220162</v>
       </c>
       <c r="I3">
-        <v>0.2638639125382024</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="J3">
-        <v>0.2638639125382024</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.005429</v>
       </c>
       <c r="O3">
-        <v>0.0003028570650768373</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0003028570650768372</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09243926329222223</v>
+        <v>0.1817026954997778</v>
       </c>
       <c r="R3">
-        <v>0.83195336963</v>
+        <v>1.635324259498</v>
       </c>
       <c r="S3">
-        <v>7.991305013101126E-05</v>
+        <v>0.6368977723762839</v>
       </c>
       <c r="T3">
-        <v>7.991305013101125E-05</v>
+        <v>0.6368977723762839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.4067206666667</v>
+        <v>54.53410833333334</v>
       </c>
       <c r="H4">
-        <v>301.220162</v>
+        <v>163.602325</v>
       </c>
       <c r="I4">
-        <v>0.5186625514500723</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="J4">
-        <v>0.5186625514500723</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N4">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>599.7801818115643</v>
+        <v>0.09868855804722222</v>
       </c>
       <c r="R4">
-        <v>5398.021636304078</v>
+        <v>0.888197022425</v>
       </c>
       <c r="S4">
-        <v>0.518505470831975</v>
+        <v>0.3459195946786617</v>
       </c>
       <c r="T4">
-        <v>0.518505470831975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>100.4067206666667</v>
-      </c>
-      <c r="H5">
-        <v>301.220162</v>
-      </c>
-      <c r="I5">
-        <v>0.5186625514500723</v>
-      </c>
-      <c r="J5">
-        <v>0.5186625514500723</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.005429</v>
-      </c>
-      <c r="O5">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P5">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q5">
-        <v>0.1817026954997778</v>
-      </c>
-      <c r="R5">
-        <v>1.635324259498</v>
-      </c>
-      <c r="S5">
-        <v>0.000157080618097433</v>
-      </c>
-      <c r="T5">
-        <v>0.000157080618097433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>42.10021433333333</v>
-      </c>
-      <c r="H6">
-        <v>126.300643</v>
-      </c>
-      <c r="I6">
-        <v>0.2174735360117253</v>
-      </c>
-      <c r="J6">
-        <v>0.2174735360117253</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>5.973506333333333</v>
-      </c>
-      <c r="N6">
-        <v>17.920519</v>
-      </c>
-      <c r="O6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="P6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="Q6">
-        <v>251.4858969548574</v>
-      </c>
-      <c r="R6">
-        <v>2263.373072593717</v>
-      </c>
-      <c r="S6">
-        <v>0.2174076726148769</v>
-      </c>
-      <c r="T6">
-        <v>0.2174076726148769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>42.10021433333333</v>
-      </c>
-      <c r="H7">
-        <v>126.300643</v>
-      </c>
-      <c r="I7">
-        <v>0.2174735360117253</v>
-      </c>
-      <c r="J7">
-        <v>0.2174735360117253</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.005429</v>
-      </c>
-      <c r="O7">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P7">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q7">
-        <v>0.07618735453855556</v>
-      </c>
-      <c r="R7">
-        <v>0.685686190847</v>
-      </c>
-      <c r="S7">
-        <v>6.586339684839299E-05</v>
-      </c>
-      <c r="T7">
-        <v>6.586339684839298E-05</v>
+        <v>0.3459195946786617</v>
       </c>
     </row>
   </sheetData>
